--- a/- DOCS -/Excel - COMPONENTS/SEZNAM - TME ; SUMEC MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SEZNAM - TME ; SUMEC MKII.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B105835-3B3C-47F3-9B62-5F4DBF4B2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF378B-83A9-47B4-BD26-77FA049F025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>TME</t>
   </si>
@@ -68,16 +68,34 @@
     <t xml:space="preserve">https://bit.ly/3Fn61Bc </t>
   </si>
   <si>
-    <t>QTR-1A REFLECTANCE SENSOR</t>
-  </si>
-  <si>
-    <t>https://bit.ly/40A8IaE</t>
+    <t>Switch: toggle</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3VizMdu</t>
+  </si>
+  <si>
+    <t>Stepper motor controller; TB6612FNG</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3Aw79jp</t>
+  </si>
+  <si>
+    <t>Přepínač: posuvný</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3HjJNB9</t>
+  </si>
+  <si>
+    <t>Stabilizátor napětí</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3oM0FKv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,9 +211,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -541,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E6:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E6:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,58 +601,118 @@
       </c>
     </row>
     <row r="8" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8">
         <v>16.670000000000002</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8">
         <f>I8*H8</f>
         <v>166.70000000000002</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>241.4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J12" si="0">I9*H9</f>
+        <v>724.2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="8">
-        <v>109.2</v>
-      </c>
-      <c r="J9" s="7">
-        <f>H9*I9</f>
-        <v>873.6</v>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>47.83</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>143.49</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>35.54</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>177.7</v>
+      </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>16.04</v>
+      </c>
       <c r="J12" s="9">
-        <f>SUM(J8:J11)</f>
-        <v>1040.3</v>
+        <f t="shared" si="0"/>
+        <v>80.199999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="J13" s="8">
+        <f>SUM(J8:J12)</f>
+        <v>1292.2900000000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F9 F11">
+  <conditionalFormatting sqref="F8:F12">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F8)))</formula>
     </cfRule>
@@ -646,8 +724,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{18BCD16F-DC49-44A9-B0AD-BD8FA82A1EF2}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{1A7834FF-3F4A-424D-AD12-1785B35222A3}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{AB6F922D-EB05-4AFC-9006-305066896D50}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{B79459A5-AFB0-4228-A34A-F2EB822CBDB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/- DOCS -/Excel - COMPONENTS/SEZNAM - TME ; SUMEC MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SEZNAM - TME ; SUMEC MKII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF378B-83A9-47B4-BD26-77FA049F025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C3EB3A-9A7D-44A2-8BE1-38B7E1E31761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,7 +213,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -563,7 +562,7 @@
   <dimension ref="E6:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,7 +699,7 @@
       <c r="I12">
         <v>16.04</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>80.199999999999989</v>
       </c>

--- a/- DOCS -/Excel - COMPONENTS/SEZNAM - TME ; SUMEC MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SEZNAM - TME ; SUMEC MKII.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolom_rupe2o\Documents\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C3EB3A-9A7D-44A2-8BE1-38B7E1E31761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511A0EFD-FF37-4682-B82D-2EC054150310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>TME</t>
   </si>
@@ -90,13 +87,28 @@
   </si>
   <si>
     <t>https://bit.ly/3oM0FKv</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3VejOko</t>
+  </si>
+  <si>
+    <t>XT30U F</t>
+  </si>
+  <si>
+    <t>Úplně celková cena</t>
+  </si>
+  <si>
+    <t>XT30U M</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3nca8KO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,22 +140,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -155,7 +168,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -167,27 +180,118 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -201,18 +305,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -559,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E6:J13"/>
+  <dimension ref="E6:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,146 +690,190 @@
     <col min="8" max="8" width="3.90625" customWidth="1"/>
     <col min="9" max="9" width="10.26953125" customWidth="1"/>
     <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="2" t="s">
+    <row r="7" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="K7" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+    <row r="8" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="17">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>16.670000000000002</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="17">
         <f>I8*H8</f>
         <v>166.70000000000002</v>
       </c>
+      <c r="K8" s="5">
+        <f>SUM(J8:J22)</f>
+        <v>1392.8700000000001</v>
+      </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="11">
         <v>241.4</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J12" si="0">I9*H9</f>
+      <c r="J9" s="3">
+        <f t="shared" ref="J9:J14" si="0">I9*H9</f>
         <v>724.2</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="10">
         <v>47.83</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>143.49</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="10">
         <v>35.54</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>177.7</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="10">
         <v>16.04</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <f t="shared" si="0"/>
         <v>80.199999999999989</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="J13" s="8">
-        <f>SUM(J8:J12)</f>
-        <v>1292.2900000000002</v>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13">
+        <v>12.516</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>62.58</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F12">
+  <conditionalFormatting sqref="F8:F14">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F8)))</formula>
     </cfRule>
@@ -728,7 +890,10 @@
     <hyperlink ref="G9" r:id="rId3" xr:uid="{1A7834FF-3F4A-424D-AD12-1785B35222A3}"/>
     <hyperlink ref="G11" r:id="rId4" xr:uid="{AB6F922D-EB05-4AFC-9006-305066896D50}"/>
     <hyperlink ref="G12" r:id="rId5" xr:uid="{B79459A5-AFB0-4228-A34A-F2EB822CBDB3}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{CDBF07DC-01E8-4276-B1BE-9ACE28672477}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{2A7724EB-31E4-4588-A196-DD3269EC0BA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>